--- a/biology/Botanique/Sophora_fernandeziana/Sophora_fernandeziana.xlsx
+++ b/biology/Botanique/Sophora_fernandeziana/Sophora_fernandeziana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophora fernandeziana est une espèce de la famille des Fabaceae. Elle est endémique endémique du Chili, plus précisément de l'Archipel Juan Fernández. L'espèce est menacée du fait de la destruction de son habitat par l'action conjuguée de la déforestation et de l'introduction d'espèces nouvelles concurrentes, notamment des chèvres.
 </t>
